--- a/Gender Brief Hours & Tasks.xlsx
+++ b/Gender Brief Hours & Tasks.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/gender-briefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C401055E-73A2-4AED-BD57-A978FA5032B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{0228DD57-99BA-44C4-A6FA-A45DA5C17E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40128A0A-8029-4CA5-B3BF-E502FCDD71C3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9A4AC3D3-3CC0-43D9-9E4B-B19EE01E04A3}"/>
+    <workbookView xWindow="19090" yWindow="-2070" windowWidth="19420" windowHeight="10300" xr2:uid="{9A4AC3D3-3CC0-43D9-9E4B-B19EE01E04A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Edits from Team" sheetId="3" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Tasks!$A:$D</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="429">
   <si>
     <t>Date</t>
   </si>
@@ -104,20 +108,1307 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Update Title level</t>
   </si>
   <si>
     <t>Add flag to Title</t>
+  </si>
+  <si>
+    <t>High good low good?</t>
+  </si>
+  <si>
+    <t>Gender Equality boxes</t>
+  </si>
+  <si>
+    <t>Boxes should be round numbers or text</t>
+  </si>
+  <si>
+    <t>2-3,5-8</t>
+  </si>
+  <si>
+    <t>1-5,8-9</t>
+  </si>
+  <si>
+    <t>10-12,2-6</t>
+  </si>
+  <si>
+    <t>Update margins for intro text</t>
+  </si>
+  <si>
+    <t>Update legend to be condensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update footnote </t>
+  </si>
+  <si>
+    <t>Gender equality section icons</t>
+  </si>
+  <si>
+    <t>Select icons</t>
+  </si>
+  <si>
+    <t>Produce oval text boxes</t>
+  </si>
+  <si>
+    <t>Update linked text for gender equality</t>
+  </si>
+  <si>
+    <t>Update automated language for gender equality</t>
+  </si>
+  <si>
+    <t>Update font size</t>
+  </si>
+  <si>
+    <t>Update font to Bima's design</t>
+  </si>
+  <si>
+    <t>Font size in table footer should be smaller</t>
+  </si>
+  <si>
+    <t>Change traffic light shade colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove lip </t>
+  </si>
+  <si>
+    <t>Grey out the Nas</t>
+  </si>
+  <si>
+    <t>Bold column headings</t>
+  </si>
+  <si>
+    <t>Three significant figures throughout</t>
+  </si>
+  <si>
+    <t>Correct indicator links</t>
+  </si>
+  <si>
+    <t>Drop measure and gender</t>
+  </si>
+  <si>
+    <t>Compared to and Base Year</t>
+  </si>
+  <si>
+    <t>Link to world bank gender data portal in footnote</t>
+  </si>
+  <si>
+    <t>Drop leading 0</t>
+  </si>
+  <si>
+    <t>Dual tone for boxes</t>
+  </si>
+  <si>
+    <t>circles around numbers</t>
+  </si>
+  <si>
+    <t>Merge columns into boxes instead</t>
+  </si>
+  <si>
+    <t>Add pointer for clicking links</t>
+  </si>
+  <si>
+    <t>Change factoids to 1 in 2 over One in Two</t>
+  </si>
+  <si>
+    <t>Want to test a few options, will present Wednesday</t>
+  </si>
+  <si>
+    <t>Awaiting content from Bima, as with other content.</t>
+  </si>
+  <si>
+    <t>6-8pm,9-11pm</t>
+  </si>
+  <si>
+    <t>8am-9am</t>
+  </si>
+  <si>
+    <t>9-10am</t>
+  </si>
+  <si>
+    <t>5-8pm</t>
+  </si>
+  <si>
+    <t>4-6pm</t>
+  </si>
+  <si>
+    <t>3-4pm</t>
+  </si>
+  <si>
+    <t>5-6pm</t>
+  </si>
+  <si>
+    <t>6-7pm</t>
+  </si>
+  <si>
+    <t>12-1, 2-3pm</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>BH Comment</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Tobacco use is really weird. Why not obesity? Or alcohol intake? Or as samantha suggests, just focus on the outcome level than one of the risk factors – NCD deaths?</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Jonna</t>
+  </si>
+  <si>
+    <t>If you have learning adjusted yeasrs of school, maybe you don’t need harmonized test scores? OR you just to the test scores and average yrs of schooling?</t>
+  </si>
+  <si>
+    <t>Unemployment missing in the eco opps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The “Gender Equality in Colombia” section on p 2 is really SUPER random. Would take out completely. </t>
+  </si>
+  <si>
+    <t>For the WBL average, maybe useful to also compare with global average in the text?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The global and regional resources are also random in terms of types of references and focus areas. I would suggest to scrap, and just reference any existing resource pages directly linked to the data like the Gender Data Portal, maybe the WBL page </t>
+  </si>
+  <si>
+    <t>NCD deaths instead of tobacco use?</t>
+  </si>
+  <si>
+    <t>Remove test scores?</t>
+  </si>
+  <si>
+    <t>Add unemployment rate</t>
+  </si>
+  <si>
+    <t>Remove gender equality in Colombia</t>
+  </si>
+  <si>
+    <t>Agreed, swap out for graphs</t>
+  </si>
+  <si>
+    <t>Include global average in text</t>
+  </si>
+  <si>
+    <t>What is the purpose of the scorecards, will this be in an online dashboard where it can be regularly updated? If not, is it part of a specific report?</t>
+  </si>
+  <si>
+    <t>It would be useful to have the summary of the country results in each one-pager, rather than a general explanation. Would be great to specify what the results say in terms of Colombia’s scores compared to the rest of the region, income group, world?</t>
+  </si>
+  <si>
+    <t>How were the indicators selected? For example, why STEM graduates versus overall graduates? Similarly, the focus on tobacco use is interesting but how granular should these scorecards be and if that is the goal why not include NCDs – these seem more relevant too, no? Also, employment in Agriculture is a very specific sector; will all countries include the same indicators or is it tailored?</t>
+  </si>
+  <si>
+    <t>For the GBV, it typically would fall under Voice and Agency but it could be an entirely separate section or there could be a whole other card for this given the many different forms of GBV. The challenge though is getting data that is standardized across the region let alone the world!</t>
+  </si>
+  <si>
+    <t>I just noticed the second page. I like it but on the Gender Equality markers, are these cornerstone indicators or supposed to summarize the previous page? A summary of results from a comparative perspective would help make these scorecards accessible as quick reference docs.</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Basic summary details instead of intro text.</t>
+  </si>
+  <si>
+    <t>Add section for GBV in detail.</t>
+  </si>
+  <si>
+    <t>Make the cards more explicit summaries.</t>
+  </si>
+  <si>
+    <t>Replace the indicator on women in the parliaments with an indicator on women’s representation in the public sector and central agencies such as the ministry of water, transport, municipalities, regulatory bodies etc.</t>
+  </si>
+  <si>
+    <t>Azada</t>
+  </si>
+  <si>
+    <t>Replace indicator on women in the parliament.</t>
+  </si>
+  <si>
+    <t>Borrowed from a financial institution (% age 15+)</t>
+  </si>
+  <si>
+    <t>Borrowed from a financial institution or used a credit card (% age 15+)</t>
+  </si>
+  <si>
+    <t>Borrowed to start, operate, or expand a farm or business (% age 15+)</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD deaths seems useful. </t>
+  </si>
+  <si>
+    <t>Fine taking out but they seem distinct enough to keep both.</t>
+  </si>
+  <si>
+    <t>Happy to add.</t>
+  </si>
+  <si>
+    <t>Agreed, simplified.</t>
+  </si>
+  <si>
+    <t>Can do partially, but full summary text would need to be more manual?</t>
+  </si>
+  <si>
+    <t>Several measure comments.</t>
+  </si>
+  <si>
+    <t>Happy to change any of these.</t>
+  </si>
+  <si>
+    <t>Agreed that standardized data is a challenge but open to new measures.</t>
+  </si>
+  <si>
+    <t>Much lower coverage.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception</t>
+  </si>
+  <si>
+    <t>Access to SRHS</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio</t>
+  </si>
+  <si>
+    <t>Farida</t>
+  </si>
+  <si>
+    <t>In the dataset?</t>
+  </si>
+  <si>
+    <t>Ownership of land</t>
+  </si>
+  <si>
+    <t>FGM prevalence</t>
+  </si>
+  <si>
+    <t>Secondary/other levels of education</t>
+  </si>
+  <si>
+    <t>Ownership of land - data may be limited but worth adding where available</t>
+  </si>
+  <si>
+    <t>FGM prevalence- data may be limited but worth adding where available</t>
+  </si>
+  <si>
+    <t>Secondary/other levels of education- data may be limited but worth adding where available</t>
+  </si>
+  <si>
+    <r>
+      <t>Unmet need for contraception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: would be good for the region (or even globally)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Adolescent fertility rate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> could be moved up to to human endowments, to be listed together with fertility rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maternal mortality ratio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perhaps this could be broken down to rural vs urban?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tobacco use:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it is indeed noted as a regional health-linked issue (to the detriment of men), but it’s worth noting that obesity is cited as well (to the detriment of women). That could be considered as well if there is space.</t>
+    </r>
+  </si>
+  <si>
+    <t>It might be helpful to highlight data gaps for the country in question.</t>
+  </si>
+  <si>
+    <t>Highlight data gaps</t>
+  </si>
+  <si>
+    <t>Within the indicators, there seems to be a focus on absolute change observed, rather than change in the gender gaps. To help address that, we thought color coding wasn’t necessary for comparing to region group. Rather, color coding could be used to show whether gap has shrunk or grown, and the arrow could show the change in value compared to the baseline.</t>
+  </si>
+  <si>
+    <t>In the legend, it says “Country, region, or income group performance in comparison to the region average”. I would suggest just saying “country performance in comparison…”</t>
+  </si>
+  <si>
+    <t>Another visual suggestion would be make the box with the year in it smaller or have the year be italicized or something? It currently has equal “weight” visually to the data points and I think it would be helpful if it were underemphasized</t>
+  </si>
+  <si>
+    <t>Reword legend</t>
+  </si>
+  <si>
+    <t>Make the years less eyecatching than the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the WBL paragraph, you can use the language from the WBL country reports which provide a very short overview of where the country is doing well and where it isn’t, under “relative strengths”, “relative improvements”, and “recent reforms”. Here is the country report for Colombia, for reference. </t>
+  </si>
+  <si>
+    <t>Regarding GBV, I believe Diana weighed in. Perhaps it could be considered its own category?</t>
+  </si>
+  <si>
+    <t>Change language for the WBL paragraph</t>
+  </si>
+  <si>
+    <t>GBV as its own section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the second row (from the top), would it be possible to  replace “region” with “LAC” and “income group” with the actual income group of the country (e.g., in the case of Columbia, “upper middle income country”?) Because you define “LAC” and “UMC” in the source note below, but you don’t actually use these acronyms (and so readers may not understand immediately what the comparator country income group is).  Also note that the acronyms on the bottom left are inconsistent with the source note at the bottom (e.g., UMIC vs UMC for upper middle income country). You also may not need to define acronyms for all income categories at the bottom left, given that you already have the source note. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fonts/script of the brief is very faint. When you print it, it’s almost impossible to read (esp. the notes). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given your space constraint, I wonder if you could shorten the introductory paragraph at the top, because it takes up a lot of space and the information is quite generic. I do think it provides some context, but I believe it could be shortened (perhaps with a reference to the WBG gender strategy). </t>
+  </si>
+  <si>
+    <t>Also, there is overlap between the note at the top right (explaining the arrows and colors) and the note at the very bottom (also explaining the arrows and colors). This could be streamlined to save space.</t>
+  </si>
+  <si>
+    <t>I do find the color coding and arrows in the column “latest” useful, but there is also a lot of information condensed into that one column (i.e., the latest value, the over time trend and the regional benchmarking). In this context, what might be confusing is that the arrows show the actual quantitative trend in the indicator (whether it increased or decreased) whereas the color coding shows qualitatively whether the country performs better or worse compared to the regional benchmark. I am not saying you should change it but it did have to think about it (e.g., in the sense that a downward pointing arrow can be a positive sign, if the indicator itself is one where a higher value indicates a worse performance).</t>
+  </si>
+  <si>
+    <r>
+      <t>You may want to add that “labor force participation” refers to the ILO modelled estimates, which I assume it does (as opposed to national estimates). The difference can be very large – esp. right now as many countries have introduced the new (19</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ICLS) employment definition nationally, but ILO modelled estimates still use the old definition. If you look at Rwanda in 2017, for example, the national estimates is 44% (based on the new employment definition), while the modelled estimate is 84% (based on the previous employment definition). </t>
+    </r>
+  </si>
+  <si>
+    <t>The indicator “firms with a female top manager” is shown under Voice and Agency, while the indicator “firms with female participation in ownership” is shown under Economic Opportunity. I would consider showing the two indicators together, under the Economic Opportunity tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding the indicator “Employment in agriculture (% of female employment)” – I assume this is supposed to read (% of female/male employment). Because the indicator is shown for males and females. </t>
+  </si>
+  <si>
+    <t>Have you contemplated the idea of also showing gender gaps (in addition to male/female indicator values) on the first page? It may not be feasible given the space constraints, but we often do look at gender gaps (and how they compare to other countries in the region).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What determines whether an indicator is shown in the table on the first page vs. on top of the second page (under gender equality in Colombia). I imagine that for housing ownership we probably don’t have annual data (so it would be hard to include the indicator in the table on the first page). But I do find it a bit confusing that tertiary education is included on the first page, while secondary education appears on top of the second page. </t>
+  </si>
+  <si>
+    <t>On the second page, I suspect a lot of the indicators are from the DHS (e.g., women participate in own healthcare decisions, do not own a house). It might be useful to clarify that this refers to women of reproductive age (15-49 years). And are you showing the same age range (15-49) for men? Because the DHSs often interview men until age 54 or even 59 (depending on the country).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender Equality in the Law: could you embed a direct link to the WBL country snapshots. Also, currently, the links at the bottom of this section (under why do laws matter for gender equality) do not seem to work for me (and I am also not quite sure you need them). </t>
+  </si>
+  <si>
+    <t>Replace region and income group with acronyms</t>
+  </si>
+  <si>
+    <t>Agreed, and easy</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>The greying in the latest version does this?</t>
+  </si>
+  <si>
+    <t>Change color coding to represent gender gap.</t>
+  </si>
+  <si>
+    <t>I like this idea, color to represent gender gap and arrow for change. Blank for non-comparative ones?</t>
+  </si>
+  <si>
+    <t>Agreed</t>
+  </si>
+  <si>
+    <t>Could be distracting in its own right to have so many formatting changes</t>
+  </si>
+  <si>
+    <t>Adds a new data source but will look at complexity of this. Could also automate.</t>
+  </si>
+  <si>
+    <t>Happy to, but could be cluttered to have four categories.</t>
+  </si>
+  <si>
+    <t>Hard to read small/faint font</t>
+  </si>
+  <si>
+    <t>Agreed, minimum size of 8 makes sense.</t>
+  </si>
+  <si>
+    <t>Shorten intro text.</t>
+  </si>
+  <si>
+    <t>Done in latest version.</t>
+  </si>
+  <si>
+    <t>Duplicative notes</t>
+  </si>
+  <si>
+    <t>Confusing to have color coding and arrows given the desired directionality of the data</t>
+  </si>
+  <si>
+    <t>I like the gender gap color coding idea (which would address this issue), though it raises other questions</t>
+  </si>
+  <si>
+    <t>Include ILO estimate text for labor force participation</t>
+  </si>
+  <si>
+    <t>group firms indicators together in EO tab</t>
+  </si>
+  <si>
+    <t>Consistency in % definitions</t>
+  </si>
+  <si>
+    <t>Show gender gaps on first page</t>
+  </si>
+  <si>
+    <t>Unclear cards justification</t>
+  </si>
+  <si>
+    <t>Clarify when age is a factor in indicator</t>
+  </si>
+  <si>
+    <t>Embed a direct link for WBL.</t>
+  </si>
+  <si>
+    <t>Good point and will go through to consider</t>
+  </si>
+  <si>
+    <t>Removing cards for charts</t>
+  </si>
+  <si>
+    <t>Color coding would get at this, but reluctant to add more numbers</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Makes sense</t>
+  </si>
+  <si>
+    <t>Worth clarifying where listed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One indicator that could be worth adding is the sex ratio at births, because missing women and sex-selective abortions are an important topic for many SAR countries. </t>
+  </si>
+  <si>
+    <t>In addition (referring to the second page), perhaps one coudl substitute the indicator “women participate in own health care decisions” with “women participating in decision of visits to family, relatives, friends” (or just add the latter)? Because mobility constraints are a major issue in SAR.</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth</t>
+  </si>
+  <si>
+    <t>Mobility constraints in SAR</t>
+  </si>
+  <si>
+    <t>Diana &amp; Eliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be useful to add the source under the graph in Gender Equality in Colombia. </t>
+  </si>
+  <si>
+    <t>Include source for graph</t>
+  </si>
+  <si>
+    <t>Use latest year for WBL</t>
+  </si>
+  <si>
+    <t>It would be better to use WBL 2022 instead of WBL 2021. Colombia scores 84.4 out of 100 (parenthood scores 100 this year as the country introduced paid parental leave last year). There’s also an asterisk next to “parenthood” in the graph that should be deleted.</t>
+  </si>
+  <si>
+    <t>Agreed permitting date refresh</t>
+  </si>
+  <si>
+    <t>One easy way to customize the country brief for Africa West is to keep the column for the Africa region as a whole and add a column for AFW to see where the country compares to its AFW peers. I think it is still useful to have the overall AFR region comparison as the AFW divide is for institutional purposes -  it would useful to know  for example how Nigeria compares to the AFR region as a whole. (But for institutional purposes, a AFW comparison is  helpful.)</t>
+  </si>
+  <si>
+    <t>Deciding whether to have a separate AFW brief may depend on the number of AFW specific resources there are- I can check with  the GP experts for AFW and the AFW PASAs to see what resources they have.</t>
+  </si>
+  <si>
+    <t>Are you indicating whether it is a FCV country in the overview as this would be helpful for context?</t>
+  </si>
+  <si>
+    <t>I see the classification for income groups at the bottom left hand corner. I understand that you are color coding the income group for comparison purposes but I am not seeing where  the info is on  the income group classification for Colombia – would there be space to  list it at the top as part of the country profile as this may be simpler to absorb?</t>
+  </si>
+  <si>
+    <t>I was wondering if you could shorten the blurb below and put some  country info there – income group, demographics, fcv country?</t>
+  </si>
+  <si>
+    <t>Would be helpful to include in intro?</t>
+  </si>
+  <si>
+    <t>Makes sense, we can evaluate</t>
+  </si>
+  <si>
+    <t>Makes sense to do, but space constraints will get very tight. What could go?</t>
+  </si>
+  <si>
+    <t>And there are currently no  indicator that could serve as a proxy for availability of childcare services – is there any data available on preprimary enrolment not only for AFW but for other regions?</t>
+  </si>
+  <si>
+    <t>Tazeen</t>
+  </si>
+  <si>
+    <t>Add column for AFW</t>
+  </si>
+  <si>
+    <t>Consider separate AFW brief</t>
+  </si>
+  <si>
+    <t>Indicate if FCV country</t>
+  </si>
+  <si>
+    <t>Move classification for income groups up</t>
+  </si>
+  <si>
+    <t>Shorten blurb with basic country info</t>
+  </si>
+  <si>
+    <t>Proxy for availability for child services</t>
+  </si>
+  <si>
+    <t>Is there a good measure?</t>
+  </si>
+  <si>
+    <t>The blurb on why gender equality matters is vague and not sure useful. Agree on the need to highlight the benefits to women’s wellbeing or GE being an development outcome in itself, in case kept here. Perhaps more relevant however would be a line on why gender data matters.</t>
+  </si>
+  <si>
+    <t>Color coding is not intuitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The resources are picked at random. We’ll never be exhaustive and always be biased in the selection. Would it not be better to just refer to the global and regional websites, GILs, IFC, and some critical initiatives? And maybe highlight the government’s own policy framework or resources? I think Leeza’s idea to capture RGAP and CGAPs is very well placed, but most of these documents are only internal. How to do this in a standardized way, which does not add any burden to our own gender teams? </t>
+  </si>
+  <si>
+    <t>WBL: rather than just the score by area, perhaps worth highlighting some individual indicators, especially in the economic opportunities sphere (maternity leave policy, protection against SH at the workplace, etc.) Again, maybe that would take too much customization so feel free to ignore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I totally agree with Leeza that adding only human endowment indicators for EAP, where that’s relatively less of a priority area, is misleading, and seems motivated only by data availability. Do you have a good set of global/regional indicators on infrastructure and access to energy/WASH? Anything on natural disasters or environmental impacts on women vs men? And on economic opportunities: informal employment? Wage gap? Sectoral employment? Remittances? </t>
+  </si>
+  <si>
+    <t>I agree on the suggestion on decision making/social norms by Leeza (though I expect several data gaps).</t>
+  </si>
+  <si>
+    <t>I actually think it’s good to keep some business indicator, such as firms with female top manager. But good to nuance that as Leeza suggests.</t>
+  </si>
+  <si>
+    <t>On GBV, we usually use the WHO 2018 data.</t>
+  </si>
+  <si>
+    <t>When we did a similar exercise in ECA, we added some contextual data as well (poverty headcount, GDP, basic HH assets like share having clean cooking, adequate housing, water access etc.</t>
+  </si>
+  <si>
+    <t>How will the boxes with snapshot stats on gender equality be adapted for each country? (first part of page 2)?</t>
+  </si>
+  <si>
+    <t>Vague blurb, instead talk about why gender data matters?</t>
+  </si>
+  <si>
+    <t>Resources list seems long and random.</t>
+  </si>
+  <si>
+    <t>Highlight individual areas instead of just the averages? Could be too much customization</t>
+  </si>
+  <si>
+    <t>Go beyond human endowment indicators for EAP</t>
+  </si>
+  <si>
+    <t>Not sure about the context.</t>
+  </si>
+  <si>
+    <t>Data availability vs automation is the tradeoff…</t>
+  </si>
+  <si>
+    <t>Agreed to condense</t>
+  </si>
+  <si>
+    <t>Let's discuss more</t>
+  </si>
+  <si>
+    <t>I like that as a component in the doc.</t>
+  </si>
+  <si>
+    <t>Yes, likely data gaps</t>
+  </si>
+  <si>
+    <t>Can change?</t>
+  </si>
+  <si>
+    <t>I agree that this would be helpful, these are good egs</t>
+  </si>
+  <si>
+    <t>Good q, they are being changed</t>
+  </si>
+  <si>
+    <t>Decision making/social norms</t>
+  </si>
+  <si>
+    <t>Business indicators</t>
+  </si>
+  <si>
+    <t>Use the 2018 WHO GBV data</t>
+  </si>
+  <si>
+    <t>Use contextual data in the brief</t>
+  </si>
+  <si>
+    <t>How to prioritize for the cards?</t>
+  </si>
+  <si>
+    <t>Leeza &amp; Hillary</t>
+  </si>
+  <si>
+    <t>It would be good to mention somewhere that gender equality matters in itself… as a human right. Currently, the top paragraph only discusses how instrumental it is for other objectives.</t>
+  </si>
+  <si>
+    <t>The color coding super confusing. For female tertiary enrolment, why 59% is yellow (for women), and 51% is green for men? Also, why reduction in maternal mortality (by a small margin), but still is labelled red?</t>
+  </si>
+  <si>
+    <t>The note needs editing (e.g., some of the indicators state “% of female…”, even if they are for men and women)… Also, it looks like women spend only 5% of their time on care work… You probably meant “hours”, not percent?</t>
+  </si>
+  <si>
+    <t>If the paper aims to provide information on Colombia, and what is relevant for Colombia, I think the last section should include things that are relevant to the country – provided by LAC GIL and LAC Gender coordination. I don’t think TTLs will read all the publications currently included.</t>
+  </si>
+  <si>
+    <t>In EAP, I think it would be great to include priorities from country Gender Action Plans, or even RGAP, and link to resources available from Gender Coordination team and EAPGIL. But CGAPs provide a snapshot of where the biggest issues are! I am copying Giorgia, who is the regional Gender Coordination for her feedback on this point and overall.</t>
+  </si>
+  <si>
+    <t>Discuss gender equality as a core objective &amp; why</t>
+  </si>
+  <si>
+    <t>Percents and hours need revision</t>
+  </si>
+  <si>
+    <t>Links should be more customized.</t>
+  </si>
+  <si>
+    <t>Link to country gender action plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the idea of including tobacco use, as it is likely to capture an area where men are disadvantaged. But consider replacing tobacco use with life expectancy for men and women. In some countries the contrast is really striking. </t>
+  </si>
+  <si>
+    <t>I’m not sure why using the internet to pay bills or buy something online is a great indicator of voice and agency. I would find it more strongly related to either human capital (knowing how to do things) or economic opportunity (being connected brings new opportunities). But there are better indicators for these two categories… Consider dropping.</t>
+  </si>
+  <si>
+    <t>I’d also drop “Firms with female top manager (% of firms)”. Are you including micro-firms? Only large enterprises? It also fits economic opportunity better, but is very similar to an indicator already included.</t>
+  </si>
+  <si>
+    <t>Consider including an indicator on social norms – e.g., percent of women/men who agree that wife beating is justified from either DHS or WVS.</t>
+  </si>
+  <si>
+    <t>It is not clear why all of the EAP-specific indicators are focused on human endowments. Is this related to data availability? Or does it indicate that endowments is more of an issue in the region (which we are not convinced is the case)? Daniel, could you clarify?</t>
+  </si>
+  <si>
+    <t>Life expectancy, not tobacco</t>
+  </si>
+  <si>
+    <t>Drop internet use</t>
+  </si>
+  <si>
+    <t>Drop female top manager</t>
+  </si>
+  <si>
+    <t>Indicator on social norms around GBV</t>
+  </si>
+  <si>
+    <t>Why EAP indicators around human endowments?</t>
+  </si>
+  <si>
+    <t>Migrants, female (% of international migrant stock) - ECA</t>
+  </si>
+  <si>
+    <t>Received a public sector pension in the past year (% age 15+) - ECA</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population) - ECA</t>
+  </si>
+  <si>
+    <t>Happy to add, not sure if it's relevant though?</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>Fixed in latest version</t>
+  </si>
+  <si>
+    <t>Our approach was to remove most links, but could also customize</t>
+  </si>
+  <si>
+    <t>Fine dropping, though internet access does seem meaningful</t>
+  </si>
+  <si>
+    <t>Worth including given other feedback</t>
+  </si>
+  <si>
+    <t>Good idea, data availability?</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Color Coding</t>
+  </si>
+  <si>
+    <t>Scrap or strongly shrink global and regional resources</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>WBL</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Indicator - Switch</t>
+  </si>
+  <si>
+    <t>Indicator - Remove</t>
+  </si>
+  <si>
+    <t>Indicator - Add</t>
+  </si>
+  <si>
+    <t>Obesity &amp; tobacco use</t>
+  </si>
+  <si>
+    <t>Indicator - Define</t>
+  </si>
+  <si>
+    <t>Indicator - Keep</t>
+  </si>
+  <si>
+    <t>any indicators on jobs beyond FLFP would be helpful. For example, sectors, types of jobs, informality, etc.</t>
+  </si>
+  <si>
+    <t>Indicators on jobs beyond FLFP</t>
+  </si>
+  <si>
+    <t>Lots of indicators, which would you recommend?</t>
+  </si>
+  <si>
+    <t>Happy to add, but would need to take something out.</t>
+  </si>
+  <si>
+    <t>Happy to add--this seems valuable, though partially covered by labor participation</t>
+  </si>
+  <si>
+    <t>Other suggestions included swapping for life expectancy, which seems better</t>
+  </si>
+  <si>
+    <t>Contraception access is included, unmet need would be harder to measure</t>
+  </si>
+  <si>
+    <t>Land is in the latest version</t>
+  </si>
+  <si>
+    <t>Isn't this already in?</t>
+  </si>
+  <si>
+    <t>Makes sense for SAR, thoughts?</t>
+  </si>
+  <si>
+    <t>Mentioned elsewhere, but labor participation partially covers</t>
+  </si>
+  <si>
+    <t>2-3, 9-11pm</t>
+  </si>
+  <si>
+    <t>4-5pm</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>1-2pm</t>
+  </si>
+  <si>
+    <t>1-4pm</t>
+  </si>
+  <si>
+    <t>10-11am</t>
+  </si>
+  <si>
+    <t>11-12pm</t>
+  </si>
+  <si>
+    <t>1-3pm</t>
+  </si>
+  <si>
+    <t>10-11,3-4</t>
+  </si>
+  <si>
+    <t>12-1,3-4</t>
+  </si>
+  <si>
+    <t>11-1pm,3-5pm</t>
+  </si>
+  <si>
+    <t>2-5pm</t>
+  </si>
+  <si>
+    <t>11-1pm</t>
+  </si>
+  <si>
+    <t>2-3pm</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>No discussion needed</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Discuss, decision needed</t>
+  </si>
+  <si>
+    <t>I like this idea</t>
+  </si>
+  <si>
+    <t>I like this idea. Not sure I fully understand what's the distraction?</t>
+  </si>
+  <si>
+    <t>Easy fix</t>
+  </si>
+  <si>
+    <t>Can you please look into this and whether this can be automated?</t>
+  </si>
+  <si>
+    <t>Giorgia</t>
+  </si>
+  <si>
+    <t>This refers to indicators like wife beating… better as factoid</t>
+  </si>
+  <si>
+    <t>We may need to have a longer footnote to nuance some indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorten current blurb. Add a line on why gender data matters. </t>
+  </si>
+  <si>
+    <t>Can add in footnoe</t>
+  </si>
+  <si>
+    <t>Agreed. Maybe also use another font type</t>
+  </si>
+  <si>
+    <t>Replaced with key factoids, 1 per pillar</t>
+  </si>
+  <si>
+    <t>Could use the cards (if kept) to highlight the largest gender gaps, to synthesize a few comments.</t>
+  </si>
+  <si>
+    <t>What do you think of a radar plot on 5-6 key indicators for each pillar?</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Chang "gender equality in X" to "gender inequality in X"</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Factoids</t>
+  </si>
+  <si>
+    <t>Use Prindex for factoids</t>
+  </si>
+  <si>
+    <t>There are lots of factoids we could add on WLR, but not in any systematized way by country.  Prindex comes the closest – so might be worth looking at:  Prindex.net</t>
+  </si>
+  <si>
+    <t>Did you find any factoids on the website?</t>
+  </si>
+  <si>
+    <t>Need to pull latest data from API. There are 2 'year' columns in WBL. Actual year and report year. Report year = actual year + 1. The one in API is actual year. So we need to adjust it accordingly</t>
+  </si>
+  <si>
+    <t>Action?</t>
+  </si>
+  <si>
+    <t>We already have some of these measures in: ag emp, vulnerable emp</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>Bulk measures discussion</t>
+  </si>
+  <si>
+    <t>Need to check coverage of these 3 indicators</t>
+  </si>
+  <si>
+    <t>Maybe drop test scores in ECA</t>
+  </si>
+  <si>
+    <t>Check coverage in ECA</t>
+  </si>
+  <si>
+    <t>Can we fit this in for global core? For a total of 32 indicators?</t>
+  </si>
+  <si>
+    <t>Unemployment requires people to actively look for work. Women are likely to be undercounted in unemployment rate, because they're not looking for work. Exclude</t>
+  </si>
+  <si>
+    <t>Check obesity coverage at global and each region level</t>
+  </si>
+  <si>
+    <t>Check if coverage is better than contraceptive prevalence. Prefer this over contraceptive prevalence. Agreed to make it global https://genderdata.worldbank.org/indicators/sp-uwt-tfrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to SRHS: would be good for the region (or even globally). Indicators could include- Pregnant women receiving prenatal care of at least four visits (% of pregnant women); Births attended by skilled health staff. </t>
+  </si>
+  <si>
+    <t>Agreed, move from Voice &amp; Agency to Endowments</t>
+  </si>
+  <si>
+    <t>Dont have this disaggregation in the portal</t>
+  </si>
+  <si>
+    <t>Low data coverage outside of AFR and SAR. Keep this in regional tailorings, but not in global core</t>
+  </si>
+  <si>
+    <t>Data only available in some parts of AFR. Can include for AFR tailoring or as factoid.  https://genderdata.worldbank.org/indicators/sh-sta-fgms-zs</t>
+  </si>
+  <si>
+    <t>We only use learning adjusted years of school</t>
+  </si>
+  <si>
+    <t>Laura weighed in and suggested that we keep it under Voice &amp; Agency</t>
+  </si>
+  <si>
+    <t>Yes, agreed with your comment</t>
+  </si>
+  <si>
+    <t>I think this was partly because we do more tailorings for human endowment pillar (for all regions). Other indicators in econ opp and V&amp;A are part of global core. But the 31 indicators are distributed evenly across the 3 pillars.
+Can include this for access to energy (SG.COK.WOOD.ZS) and this for WASH, but only available for AFR and SAR https://genderdata.worldbank.org/indicators/sg-h2-o-tl-30-hh-zs</t>
+  </si>
+  <si>
+    <t>We are restricted to data in the portal</t>
+  </si>
+  <si>
+    <t>Like this idea</t>
+  </si>
+  <si>
+    <t>Do you suggest to add this in the intro para?</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>I think it is better to link WBL country briefs</t>
+  </si>
+  <si>
+    <t>Global core and regional tailoring goes to table. Factoids developed from 1 key indicator per pillar</t>
+  </si>
+  <si>
+    <t>Agreed with your suggestion</t>
+  </si>
+  <si>
+    <t>I think this is too specific an issue for few countries. Not worth adding as a global indicator</t>
+  </si>
+  <si>
+    <t>See comment above for reluctance to include unemp rate</t>
+  </si>
+  <si>
+    <t>We can drop test scores to make space for other indicators suggested</t>
+  </si>
+  <si>
+    <t>Here's a good indicator. Pretty good coverage https://genderdata.worldbank.org/indicators/sh-dyn-ncom-zs</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Better as factoid</t>
+  </si>
+  <si>
+    <t>This is our best measure for access to digital tech. But if it's a poor proxy, we can replace this with access to finance (i.e. one of the borrowing indicators suggested by Diego)</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>I'm inclined to replace with the NCD death indicator suggested by Jonna</t>
+  </si>
+  <si>
+    <t>See comment above. Happy to draft an email reply to them after we address their feedback</t>
+  </si>
+  <si>
+    <t>Ask if there's a website hosting CGAP or RGAP</t>
+  </si>
+  <si>
+    <t>We decided to shorten resources and include links to GIL website</t>
+  </si>
+  <si>
+    <t>Keep under V&amp;A per Laura's guidance</t>
+  </si>
+  <si>
+    <t>Here's another alternative for NCD deaths SH.DTH.NCOM.1559.FE.ZS --&gt; this will replace tobacco use. If we use this, this can be global core</t>
+  </si>
+  <si>
+    <t>It will be included in the gender data portal and will be regularly updated</t>
+  </si>
+  <si>
+    <t>Don't distinguish AFR west from AFR east</t>
+  </si>
+  <si>
+    <t>Change "X's performance" to just X</t>
+  </si>
+  <si>
+    <t>I think X's performance is clearer</t>
+  </si>
+  <si>
+    <t>Peer comparisons should have years</t>
+  </si>
+  <si>
+    <t>Could get cluttered</t>
+  </si>
+  <si>
+    <t>Add % of loans granted to women</t>
+  </si>
+  <si>
+    <t>And take what out?</t>
+  </si>
+  <si>
+    <t>Replace access to internet with borrowing indicator</t>
+  </si>
+  <si>
+    <t>Change % firms with female participation in ownership to majority female ownership</t>
+  </si>
+  <si>
+    <t>Could make sense, either seems useful</t>
+  </si>
+  <si>
+    <t>Move firms with female top manager to economic opportunity section</t>
+  </si>
+  <si>
+    <t>This is one of the few indicators capturing women leadership. Keep here</t>
+  </si>
+  <si>
+    <t>Change table headers (to what?)</t>
+  </si>
+  <si>
+    <t>Suggest simplifying/clarifying the tables (baseline, years). It’s not very clear what baseline means here to me. It would be nice to have it more self-explanatory.</t>
+  </si>
+  <si>
+    <t>not sure what to change them to</t>
+  </si>
+  <si>
+    <t>I suggest we keep baseline</t>
+  </si>
+  <si>
+    <t>Move GBV to voice and agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On GBV, I think the WB gender strategy has it under voice and agency so I would follow the same approach. </t>
+  </si>
+  <si>
+    <t>Luiza</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Include Gender Gap index in the brief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was just wondering why Gender Gap index information are not included in the brief. The index gives you a better idea about the Gender Gap at glance and we are all at the WB about closing the gaps. </t>
+  </si>
+  <si>
+    <t>Would this be a useful source? Would require redesign.</t>
+  </si>
+  <si>
+    <t>Index is often sensitive to the construction, method, and the choice of aggregation. We avoid the use of indexes as much as possible, and prefer to show actual outcomes</t>
+  </si>
+  <si>
+    <t>Besa</t>
+  </si>
+  <si>
+    <t>Consider adding share of female teachers and earning gaps by level and field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education indicators: what we find useful is the data that depicts the share of female graduates across different STEM fields, for example: the share of females with university degree in energy, engineering and ICT, but I understand that there are space constraints, so it is fine to group them under the STEM fields.  Also, earning gap by level and field of education is useful to better understand gender gaps in the different sectors where we have projects. Sometimes, we also look at the share of female teachers in a country, but primarily for EDU projects. </t>
+  </si>
+  <si>
+    <t>What should we take out?</t>
+  </si>
+  <si>
+    <t>The indicators mentioned are not available in the portal</t>
+  </si>
+  <si>
+    <t>Life expectancy by sex</t>
+  </si>
+  <si>
+    <t>Health indicators: perhaps you could consider adding the following indicator: life expectancy by sex</t>
+  </si>
+  <si>
+    <t>Switch with tobacco?</t>
+  </si>
+  <si>
+    <t>Check variation across countries, and gender gap. If there's not a lot of variation, then maybe the NCD deaths are more useful</t>
+  </si>
+  <si>
+    <t>Add gender wage gap; part time employment</t>
+  </si>
+  <si>
+    <t>Would be critically important to have data on the gender wage gap, and perhaps also on part-time employment by sex</t>
+  </si>
+  <si>
+    <t>Not available on portal</t>
+  </si>
+  <si>
+    <t>Add share of land titles owned by women, and access to sexual and reproductive health</t>
+  </si>
+  <si>
+    <t>Would be useful to have an indicator on the share of land titles owned by women, as well as on the levels of access to sexual and reproductive health.</t>
+  </si>
+  <si>
+    <t>Land data is only available in AFR. Access to SRH is a good suggestion - see above my response to Farida's comment</t>
+  </si>
+  <si>
+    <t>Show comparison to baseline to show progress and current gender gap rather than comparison to region/income</t>
+  </si>
+  <si>
+    <t>I think the two highlighted are most important for operational teams (so depends on your audience), so yes, combination</t>
+  </si>
+  <si>
+    <t>Prefer version 1 for the links</t>
+  </si>
+  <si>
+    <t>I mostly like version 1 because I think a more complete list of resources is important (and of course there are more than shown there).  But I also like the factoids, so if any way to combine?</t>
+  </si>
+  <si>
+    <t>Use Land Portal indicators and link in references</t>
+  </si>
+  <si>
+    <t>While globally relevant, land indicators are somewhat uneven from region to region.  The Land Portal provides the most complete data and I would include in the references section. https://landportal.org/book/datasets</t>
+  </si>
+  <si>
+    <t>We are constrained by indicators on the portal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include GBV in voice and agency </t>
+  </si>
+  <si>
+    <t>I would include under voice and agency, but perhaps give it a box or color to make it stand out?</t>
+  </si>
+  <si>
+    <t>Diana (GBV expert) suggests to replace the incidence of violence with lifetime prevalence (https://genderdata.worldbank.org/indicators/sg-vaw-afsx-zs/). But lifetime prevalence has more missing data. I suggest that we prioritize lifetime prevalence if data permits, and replace with incidence in the past 12 months if lifetime is not available</t>
+  </si>
+  <si>
+    <t>Size of Change</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>DH Comment</t>
+  </si>
+  <si>
+    <t>1-3,5-7pm</t>
+  </si>
+  <si>
+    <t>12-2,4-6pm</t>
+  </si>
+  <si>
+    <t>2-6pm</t>
+  </si>
+  <si>
+    <t>12-5,9:30-1030pm</t>
+  </si>
+  <si>
+    <t>3-9pm</t>
+  </si>
+  <si>
+    <t>11-7pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +1424,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,7 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,14 +1472,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,8 +1535,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79E22018-ED1F-4624-B7F5-94E7381717B9}" name="Table1" displayName="Table1" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{79E22018-ED1F-4624-B7F5-94E7381717B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2B1D861-B042-4CFA-9199-0D500BA366A9}" name="Table33" displayName="Table33" ref="A1:I95" totalsRowShown="0">
+  <autoFilter ref="A1:I95" xr:uid="{A2B1D861-B042-4CFA-9199-0D500BA366A9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I95">
+    <sortCondition ref="I1:I95"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0803900A-47DB-41D7-AA2B-35CEA39E57E5}" name="Person"/>
+    <tableColumn id="8" xr3:uid="{B7F063A2-A5E3-4D38-91A1-B606935B5360}" name="Size of Change"/>
+    <tableColumn id="7" xr3:uid="{E6748817-DA01-475A-8C6F-2F5DB5EC42CF}" name="Importance" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A37BC1A1-2690-4532-8CCE-16E886F7347E}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{B88E66E1-7B0A-4F2F-AA10-2063FCDECCDE}" name="Action" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2B4320BB-947C-4CF1-9B64-D6B5B732A3B2}" name="Comment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1C1182D7-2DBF-4D2A-B8B6-49FDDD544D16}" name="BH Comment" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3D10816C-6F61-4CDD-BBB3-428510284FE0}" name="DH Comment" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{301C0CFC-5348-4BC2-A45E-F6A3198B2DBC}" name="Decision" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79E22018-ED1F-4624-B7F5-94E7381717B9}" name="Table1" displayName="Table1" ref="A1:B45" totalsRowShown="0">
+  <autoFilter ref="A1:B45" xr:uid="{79E22018-ED1F-4624-B7F5-94E7381717B9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{04D8ABCA-CB0C-4C2B-94B6-2465851E89C1}" name="Action" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8EB2BCE8-FC59-4646-9D55-1D2D012D33A0}" name="Status"/>
@@ -497,19 +1863,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4220439-6ECF-439A-A803-B455A5B5D58D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44654</v>
       </c>
@@ -531,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44655</v>
       </c>
@@ -542,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44656</v>
       </c>
@@ -553,94 +1919,575 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44657</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44658</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44659</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44660</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44661</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44662</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44663</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44664</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44665</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44666</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44667</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44668</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44669</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44670</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44671</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44672</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44673</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44674</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -649,20 +2496,2622 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F5ADE-4827-450E-89B3-423ECB260E01}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E3AF14-1A17-4E60-8E64-BCDF4C3C22A4}">
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.54296875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="290" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>312</v>
+      </c>
+      <c r="B50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="348" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="348" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>352</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I95" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H35" r:id="rId1" display="https://genderdata.worldbank.org/indicators/sp-uwt-tfrt" xr:uid="{2474B27B-26A5-4610-8DA8-B59BC596609F}"/>
+    <hyperlink ref="H40" r:id="rId2" display="https://genderdata.worldbank.org/indicators/sh-sta-fgms-zs" xr:uid="{3013B57E-509B-4106-8B5D-3D1B370188BF}"/>
+    <hyperlink ref="H46" r:id="rId3" display="https://genderdata.worldbank.org/indicators/sg-h2-o-tl-30-hh-zs" xr:uid="{5667005B-5C79-4BBE-8E02-C3C0B00E169C}"/>
+    <hyperlink ref="H62" r:id="rId4" display="https://genderdata.worldbank.org/indicators/sh-dyn-ncom-zs" xr:uid="{73257E32-5BD7-4C49-BAAC-638251C8A19D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F5ADE-4827-450E-89B3-423ECB260E01}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -670,7 +5119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -678,7 +5127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -686,7 +5135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -694,7 +5143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -702,15 +5151,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -718,7 +5167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -726,51 +5175,305 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -785,6 +5488,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DCFE98294182544AD2A8BD4B79DF340" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad3dd4b1c7bfdb997bb21edea7164344">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="231b270e-046e-40a6-900d-f493e5eb05bf" xmlns:ns4="644eeb24-5218-448f-a498-208100f771cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb1bcf4a86e6986b2d9eb8a656fb38a2" ns3:_="" ns4:_="">
     <xsd:import namespace="231b270e-046e-40a6-900d-f493e5eb05bf"/>
@@ -969,15 +5681,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -985,6 +5688,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315B85B7-0711-425F-A9D9-3DD01BF08D0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52E8DD2-D0E5-4B7D-B5F5-FB6E59613B44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1003,27 +5714,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315B85B7-0711-425F-A9D9-3DD01BF08D0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CF30087-258A-4555-B27E-1681FAB20F81}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="231b270e-046e-40a6-900d-f493e5eb05bf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="644eeb24-5218-448f-a498-208100f771cd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="231b270e-046e-40a6-900d-f493e5eb05bf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>